--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N2">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O2">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P2">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q2">
-        <v>0.04695070933333334</v>
+        <v>0.007866829785888889</v>
       </c>
       <c r="R2">
-        <v>0.4225563840000001</v>
+        <v>0.070801468073</v>
       </c>
       <c r="S2">
-        <v>0.01574682011544506</v>
+        <v>0.003668640670883249</v>
       </c>
       <c r="T2">
-        <v>0.018964685431612</v>
+        <v>0.00427248898147087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.830056</v>
       </c>
       <c r="O3">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P3">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q3">
-        <v>0.06705346016000001</v>
+        <v>0.02454067337866667</v>
       </c>
       <c r="R3">
-        <v>0.60348114144</v>
+        <v>0.220866060408</v>
       </c>
       <c r="S3">
-        <v>0.02248909101162494</v>
+        <v>0.01144437020988189</v>
       </c>
       <c r="T3">
-        <v>0.02708474050961148</v>
+        <v>0.01332808252649662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N4">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O4">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P4">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q4">
-        <v>0.01540585550666667</v>
+        <v>0.006856381050555555</v>
       </c>
       <c r="R4">
-        <v>0.13865269956</v>
+        <v>0.061707429455</v>
       </c>
       <c r="S4">
-        <v>0.005166977002747563</v>
+        <v>0.003197425018939719</v>
       </c>
       <c r="T4">
-        <v>0.006222849614784678</v>
+        <v>0.003723712510446076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N5">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O5">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P5">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q5">
-        <v>0.1423751947</v>
+        <v>0.01444908913466667</v>
       </c>
       <c r="R5">
-        <v>0.8542511682</v>
+        <v>0.086694534808</v>
       </c>
       <c r="S5">
-        <v>0.04775128239118333</v>
+        <v>0.00673823096461796</v>
       </c>
       <c r="T5">
-        <v>0.03833950993981448</v>
+        <v>0.005231550344959227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H6">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I6">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J6">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N6">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O6">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P6">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q6">
-        <v>0.01498752601333333</v>
+        <v>0.005064730556666668</v>
       </c>
       <c r="R6">
-        <v>0.13488773412</v>
+        <v>0.04558257501000001</v>
       </c>
       <c r="S6">
-        <v>0.005026673280523957</v>
+        <v>0.002361901428270578</v>
       </c>
       <c r="T6">
-        <v>0.006053874803530873</v>
+        <v>0.002750664001437032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N7">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O7">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P7">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q7">
-        <v>0.394660520088889</v>
+        <v>0.1806824611881111</v>
       </c>
       <c r="R7">
-        <v>3.551944680800001</v>
+        <v>1.626142150693</v>
       </c>
       <c r="S7">
-        <v>0.1323653743415447</v>
+        <v>0.08425999337356843</v>
       </c>
       <c r="T7">
-        <v>0.1594142606584296</v>
+        <v>0.09812895989639325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
         <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J8">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.830056</v>
       </c>
       <c r="O8">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P8">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q8">
-        <v>0.5636411853253334</v>
+        <v>0.5636411853253332</v>
       </c>
       <c r="R8">
-        <v>5.072770667928</v>
+        <v>5.072770667927999</v>
       </c>
       <c r="S8">
-        <v>0.1890398777995229</v>
+        <v>0.2628500975041391</v>
       </c>
       <c r="T8">
-        <v>0.2276702083477758</v>
+        <v>0.3061145110989033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
         <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N9">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O9">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P9">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q9">
-        <v>0.1294992777107778</v>
+        <v>0.1574748452394444</v>
       </c>
       <c r="R9">
-        <v>1.165493499397</v>
+        <v>1.417273607155</v>
       </c>
       <c r="S9">
-        <v>0.04343282263775982</v>
+        <v>0.07343728510851384</v>
       </c>
       <c r="T9">
-        <v>0.0523083271856396</v>
+        <v>0.08552486318582965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
         <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J10">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N10">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O10">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P10">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q10">
-        <v>1.196784227244167</v>
+        <v>0.3318613797213333</v>
       </c>
       <c r="R10">
-        <v>7.180705363465</v>
+        <v>1.991168278328</v>
       </c>
       <c r="S10">
-        <v>0.401390015422752</v>
+        <v>0.1547612173997925</v>
       </c>
       <c r="T10">
-        <v>0.3222760880006082</v>
+        <v>0.1201563295359821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
         <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J11">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N11">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O11">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P11">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q11">
-        <v>0.1259828636298889</v>
+        <v>0.1163248738233333</v>
       </c>
       <c r="R11">
-        <v>1.133845772669</v>
+        <v>1.04692386441</v>
       </c>
       <c r="S11">
-        <v>0.04225345089302106</v>
+        <v>0.05424728572482049</v>
       </c>
       <c r="T11">
-        <v>0.05088795062821871</v>
+        <v>0.06317624191801732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N12">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O12">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P12">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q12">
-        <v>0.007344800400000001</v>
+        <v>0.008310254362444446</v>
       </c>
       <c r="R12">
-        <v>0.04406880240000001</v>
+        <v>0.074792289262</v>
       </c>
       <c r="S12">
-        <v>0.002463376002724976</v>
+        <v>0.003875428599476658</v>
       </c>
       <c r="T12">
-        <v>0.001977844866411645</v>
+        <v>0.004513313642612681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.830056</v>
       </c>
       <c r="O13">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P13">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q13">
-        <v>0.010489602564</v>
+        <v>0.02592394186133333</v>
       </c>
       <c r="R13">
-        <v>0.062937615384</v>
+        <v>0.233315476752</v>
       </c>
       <c r="S13">
-        <v>0.003518112654808152</v>
+        <v>0.01208944772552418</v>
       </c>
       <c r="T13">
-        <v>0.002824693041611563</v>
+        <v>0.01407933805273291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H14">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I14">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J14">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N14">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O14">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P14">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q14">
-        <v>0.0024100367235</v>
+        <v>0.007242850307777778</v>
       </c>
       <c r="R14">
-        <v>0.014460220341</v>
+        <v>0.06518565277</v>
       </c>
       <c r="S14">
-        <v>0.0008083033312050017</v>
+        <v>0.003377652235452614</v>
       </c>
       <c r="T14">
-        <v>0.0006489868344738156</v>
+        <v>0.003933604638291652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H15">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I15">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J15">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N15">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O15">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P15">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q15">
-        <v>0.02227266428625</v>
+        <v>0.01526353172533333</v>
       </c>
       <c r="R15">
-        <v>0.089090657145</v>
+        <v>0.09158119035200001</v>
       </c>
       <c r="S15">
-        <v>0.007470039174855978</v>
+        <v>0.007118040531310097</v>
       </c>
       <c r="T15">
-        <v>0.003998463522563938</v>
+        <v>0.005526433806223858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H16">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I16">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J16">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N16">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O16">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P16">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q16">
-        <v>0.0023445947595</v>
+        <v>0.005350210993333334</v>
       </c>
       <c r="R16">
-        <v>0.014067568557</v>
+        <v>0.04815189894000001</v>
       </c>
       <c r="S16">
-        <v>0.0007863547206357081</v>
+        <v>0.002495033219500571</v>
       </c>
       <c r="T16">
-        <v>0.0006313642926079678</v>
+        <v>0.002905708924650151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H17">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I17">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J17">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6605333333333334</v>
+        <v>0.3024036666666667</v>
       </c>
       <c r="N17">
-        <v>1.9816</v>
+        <v>0.907211</v>
       </c>
       <c r="O17">
-        <v>0.1637209603602522</v>
+        <v>0.1338403725060509</v>
       </c>
       <c r="P17">
-        <v>0.1961884434749869</v>
+        <v>0.1457864030115969</v>
       </c>
       <c r="Q17">
-        <v>0.03919428657777778</v>
+        <v>0.05570078977616667</v>
       </c>
       <c r="R17">
-        <v>0.3527485792000001</v>
+        <v>0.334204738657</v>
       </c>
       <c r="S17">
-        <v>0.01314538990053745</v>
+        <v>0.02597567105617418</v>
       </c>
       <c r="T17">
-        <v>0.01583165251853364</v>
+        <v>0.0201674640700269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H18">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I18">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J18">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.830056</v>
       </c>
       <c r="O18">
-        <v>0.2338208953337171</v>
+        <v>0.4175167069766398</v>
       </c>
       <c r="P18">
-        <v>0.2801898877609242</v>
+        <v>0.4547824977446127</v>
       </c>
       <c r="Q18">
-        <v>0.05597599207466666</v>
+        <v>0.173759306612</v>
       </c>
       <c r="R18">
-        <v>0.5037839286719999</v>
+        <v>1.042555839672</v>
       </c>
       <c r="S18">
-        <v>0.01877381386776111</v>
+        <v>0.08103142899121819</v>
       </c>
       <c r="T18">
-        <v>0.02261024586192533</v>
+        <v>0.06291265504514831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H19">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I19">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J19">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2167396666666667</v>
+        <v>0.2635616666666666</v>
       </c>
       <c r="N19">
-        <v>0.650219</v>
+        <v>0.790685</v>
       </c>
       <c r="O19">
-        <v>0.05372147715204018</v>
+        <v>0.116649351622662</v>
       </c>
       <c r="P19">
-        <v>0.06437497654817444</v>
+        <v>0.1270609836798986</v>
       </c>
       <c r="Q19">
-        <v>0.01286075384755555</v>
+        <v>0.04854634584916667</v>
       </c>
       <c r="R19">
-        <v>0.115746784628</v>
+        <v>0.291278075095</v>
       </c>
       <c r="S19">
-        <v>0.004313374180327795</v>
+        <v>0.02263924651382212</v>
       </c>
       <c r="T19">
-        <v>0.005194812913276355</v>
+        <v>0.01757707008425738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H20">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I20">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J20">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0030275</v>
+        <v>0.555428</v>
       </c>
       <c r="N20">
-        <v>4.006055</v>
+        <v>1.110856</v>
       </c>
       <c r="O20">
-        <v>0.496473939132007</v>
+        <v>0.2458260220178906</v>
       </c>
       <c r="P20">
-        <v>0.3966197491548185</v>
+        <v>0.1785116147223198</v>
       </c>
       <c r="Q20">
-        <v>0.1188543104433333</v>
+        <v>0.102306227318</v>
       </c>
       <c r="R20">
-        <v>0.71312586266</v>
+        <v>0.4092249092720001</v>
       </c>
       <c r="S20">
-        <v>0.03986260214321574</v>
+        <v>0.04770978864913028</v>
       </c>
       <c r="T20">
-        <v>0.032005687691832</v>
+        <v>0.02469452913046006</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H21">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I21">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J21">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2108543333333333</v>
+        <v>0.19469</v>
       </c>
       <c r="N21">
-        <v>0.632563</v>
+        <v>0.5840700000000001</v>
       </c>
       <c r="O21">
-        <v>0.05226272802198335</v>
+        <v>0.08616754687675653</v>
       </c>
       <c r="P21">
-        <v>0.06262694306109613</v>
+        <v>0.09385850084157203</v>
       </c>
       <c r="Q21">
-        <v>0.01251153386177778</v>
+        <v>0.035860632515</v>
       </c>
       <c r="R21">
-        <v>0.112603804756</v>
+        <v>0.2151637950900001</v>
       </c>
       <c r="S21">
-        <v>0.004196249127802619</v>
+        <v>0.01672335343572736</v>
       </c>
       <c r="T21">
-        <v>0.005053753336738593</v>
+        <v>0.01298398138843181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.113886</v>
+      </c>
+      <c r="H22">
+        <v>0.341658</v>
+      </c>
+      <c r="I22">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J22">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3024036666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.907211</v>
+      </c>
+      <c r="O22">
+        <v>0.1338403725060509</v>
+      </c>
+      <c r="P22">
+        <v>0.1457864030115969</v>
+      </c>
+      <c r="Q22">
+        <v>0.03443954398200001</v>
+      </c>
+      <c r="R22">
+        <v>0.309955895838</v>
+      </c>
+      <c r="S22">
+        <v>0.01606063880594838</v>
+      </c>
+      <c r="T22">
+        <v>0.01870417642109317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.113886</v>
+      </c>
+      <c r="H23">
+        <v>0.341658</v>
+      </c>
+      <c r="I23">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J23">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.943352</v>
+      </c>
+      <c r="N23">
+        <v>2.830056</v>
+      </c>
+      <c r="O23">
+        <v>0.4175167069766398</v>
+      </c>
+      <c r="P23">
+        <v>0.4547824977446127</v>
+      </c>
+      <c r="Q23">
+        <v>0.107434585872</v>
+      </c>
+      <c r="R23">
+        <v>0.966911272848</v>
+      </c>
+      <c r="S23">
+        <v>0.05010136254587635</v>
+      </c>
+      <c r="T23">
+        <v>0.0583479110213316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.113886</v>
+      </c>
+      <c r="H24">
+        <v>0.341658</v>
+      </c>
+      <c r="I24">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J24">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2635616666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.790685</v>
+      </c>
+      <c r="O24">
+        <v>0.116649351622662</v>
+      </c>
+      <c r="P24">
+        <v>0.1270609836798986</v>
+      </c>
+      <c r="Q24">
+        <v>0.03001598397</v>
+      </c>
+      <c r="R24">
+        <v>0.27014385573</v>
+      </c>
+      <c r="S24">
+        <v>0.01399774274593374</v>
+      </c>
+      <c r="T24">
+        <v>0.01630173326107383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.113886</v>
+      </c>
+      <c r="H25">
+        <v>0.341658</v>
+      </c>
+      <c r="I25">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J25">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.555428</v>
+      </c>
+      <c r="N25">
+        <v>1.110856</v>
+      </c>
+      <c r="O25">
+        <v>0.2458260220178906</v>
+      </c>
+      <c r="P25">
+        <v>0.1785116147223198</v>
+      </c>
+      <c r="Q25">
+        <v>0.063255473208</v>
+      </c>
+      <c r="R25">
+        <v>0.379532839248</v>
+      </c>
+      <c r="S25">
+        <v>0.02949874447303977</v>
+      </c>
+      <c r="T25">
+        <v>0.02290277190469459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113886</v>
+      </c>
+      <c r="H26">
+        <v>0.341658</v>
+      </c>
+      <c r="I26">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J26">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.19469</v>
+      </c>
+      <c r="N26">
+        <v>0.5840700000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.08616754687675653</v>
+      </c>
+      <c r="P26">
+        <v>0.09385850084157203</v>
+      </c>
+      <c r="Q26">
+        <v>0.02217246534</v>
+      </c>
+      <c r="R26">
+        <v>0.1995521880600001</v>
+      </c>
+      <c r="S26">
+        <v>0.01033997306843752</v>
+      </c>
+      <c r="T26">
+        <v>0.0120419046090357</v>
       </c>
     </row>
   </sheetData>
